--- a/arduino/servo_calibrate_ard/old_thumb_new_index.xlsx
+++ b/arduino/servo_calibrate_ard/old_thumb_new_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cd0d0af168c0bd5/Uni/Year4/Technical_Project/Remote_Feelings2/arduino/servo_calibrate_ard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FE64AC-ED9C-418D-A0B3-C724CEE06F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{91FE64AC-ED9C-418D-A0B3-C724CEE06F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{362DE76A-7733-4208-8FB2-B81DF1F1EF7F}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{E87B92A2-90C9-43D4-9E07-5A96050256EA}"/>
+    <workbookView xWindow="12165" yWindow="3660" windowWidth="21600" windowHeight="11385" xr2:uid="{E87B92A2-90C9-43D4-9E07-5A96050256EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>microsec</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>deg rf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Deg (write)</t>
   </si>
 </sst>
 </file>
@@ -333,58 +339,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-74</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-65</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-55</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-46</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-37</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-27</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>-51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68</c:v>
+                  <c:v>-68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>77</c:v>
+                  <c:v>-77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,8 +705,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5537182852143483E-2"/>
-                  <c:y val="0.37921296296296297"/>
+                  <c:x val="9.1090332458442697E-2"/>
+                  <c:y val="-0.3139650772820064"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -740,58 +746,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-74</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-65</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-55</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-46</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-37</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-27</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>-51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68</c:v>
+                  <c:v>-68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>77</c:v>
+                  <c:v>-77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,6 +1059,960 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>enc2microsecs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13252405949256343"/>
+                  <c:y val="3.0427238261884017E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEF6-4C49-885D-34105FE30D7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="61464816"/>
+        <c:axId val="61466480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="61464816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61466480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="61466480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61464816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>enc2writeDeg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4011596675415573"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33148578302712162"/>
+                  <c:y val="-0.15662839020122485"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D585-416B-BC26-D1F0EDDCE2ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2052763087"/>
+        <c:axId val="2052753519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2052763087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2052753519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2052753519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2052763087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1133,6 +2093,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1650,6 +2690,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2239,7 +4311,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4355DA-E286-B3AF-DC33-EE7763B7D646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19EB933-1D28-7FEB-FFB7-E7D90B17B0D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2539,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DC851B-6573-41D8-8E88-0D6CAE579306}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,9 +4698,10 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2565,8 +4714,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>600</v>
       </c>
@@ -2577,11 +4732,17 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D19" si="0">C2-90</f>
-        <v>-74</v>
+        <f>90-C2</f>
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>180</v>
+      </c>
+      <c r="J2">
+        <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>700</v>
       </c>
@@ -2592,11 +4753,17 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>-65</v>
+        <f t="shared" ref="D3:D19" si="0">90-C3</f>
+        <v>65</v>
+      </c>
+      <c r="I3">
+        <v>170</v>
+      </c>
+      <c r="J3">
+        <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>800</v>
       </c>
@@ -2608,10 +4775,16 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>55</v>
+      </c>
+      <c r="I4">
+        <v>160</v>
+      </c>
+      <c r="J4">
+        <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>900</v>
       </c>
@@ -2623,10 +4796,16 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -2638,10 +4817,16 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>140</v>
+      </c>
+      <c r="J6">
+        <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1100</v>
       </c>
@@ -2653,10 +4838,16 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>130</v>
+      </c>
+      <c r="J7">
+        <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1200</v>
       </c>
@@ -2668,10 +4859,16 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>120</v>
+      </c>
+      <c r="J8">
+        <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1300</v>
       </c>
@@ -2683,10 +4880,16 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>110</v>
+      </c>
+      <c r="J9">
+        <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1400</v>
       </c>
@@ -2698,10 +4901,16 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1500</v>
       </c>
@@ -2713,10 +4922,16 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>-7</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
+      <c r="J11">
+        <v>514</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1600</v>
       </c>
@@ -2728,10 +4943,16 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>-16</v>
+      </c>
+      <c r="I12">
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <v>556</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1700</v>
       </c>
@@ -2743,10 +4964,16 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>-25</v>
+      </c>
+      <c r="I13">
+        <v>70</v>
+      </c>
+      <c r="J13">
+        <v>597</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1800</v>
       </c>
@@ -2758,10 +4985,16 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>-34</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>648</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1900</v>
       </c>
@@ -2773,10 +5006,16 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>-42</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>693</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -2788,10 +5027,16 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>-51</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>737</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2100</v>
       </c>
@@ -2803,10 +5048,16 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>-60</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2200</v>
       </c>
@@ -2818,10 +5069,16 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>-68</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>817</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2300</v>
       </c>
@@ -2833,7 +5090,26 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>-77</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
